--- a/documentacao/concorencia - Copy.xlsx
+++ b/documentacao/concorencia - Copy.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37E645B1-E459-4186-9420-A28D8EB69102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrohenriqueleiva/Desktop/Resenha/documentacao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD7D63-10A3-B94F-A6C3-9BA53995941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="17460" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,13 +459,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -477,6 +475,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,7 +516,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDE99CF7-AB04-42D3-BC80-7A82D09042DE}" name="Table1" displayName="Table1" ref="B5:I10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDE99CF7-AB04-42D3-BC80-7A82D09042DE}" name="Table1" displayName="Table1" ref="B5:I10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B5:I10" xr:uid="{CDE99CF7-AB04-42D3-BC80-7A82D09042DE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -537,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -835,17 +840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -854,7 +859,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="51.75" customHeight="1">
+    <row r="5" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -880,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -906,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -932,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -958,7 +963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -984,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
@@ -992,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>11</v>
@@ -1010,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1018,7 +1023,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1026,7 +1031,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1034,7 +1039,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1042,7 +1047,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1050,7 +1055,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
